--- a/api/out/XLSX/SGAE_ResumAutoliquidacions_SardanaMat.xlsx
+++ b/api/out/XLSX/SGAE_ResumAutoliquidacions_SardanaMat.xlsx
@@ -601,29 +601,39 @@
           <t>SardanaMat</t>
         </is>
       </c>
-      <c r="C4" s="14" t="n">
-        <v/>
-      </c>
-      <c r="D4" s="14" t="n">
-        <v/>
-      </c>
-      <c r="E4" s="12" t="n">
-        <v/>
-      </c>
-      <c r="F4" s="12" t="n">
-        <v/>
-      </c>
-      <c r="G4" s="12" t="n">
-        <v/>
+      <c r="C4" s="14" t="inlineStr">
+        <is>
+          <t>28/12/2023</t>
+        </is>
+      </c>
+      <c r="D4" s="14" t="inlineStr">
+        <is>
+          <t>28/12/2023</t>
+        </is>
+      </c>
+      <c r="E4" s="12" t="inlineStr">
+        <is>
+          <t>Mataró</t>
+        </is>
+      </c>
+      <c r="F4" s="12" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G4" s="12" t="inlineStr">
+        <is>
+          <t>Mataró</t>
+        </is>
       </c>
       <c r="H4" s="12" t="inlineStr">
         <is>
-          <t>uniii</t>
+          <t>SardAnual</t>
         </is>
       </c>
       <c r="I4" s="12" t="inlineStr">
         <is>
-          <t>uniii</t>
+          <t>SardAnual</t>
         </is>
       </c>
     </row>
